--- a/demo/tablas_excel/CR/revocando/avgrevocation.xlsx
+++ b/demo/tablas_excel/CR/revocando/avgrevocation.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.91</v>
+        <v>0.091</v>
       </c>
       <c r="C2" t="n">
-        <v>1.76</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>4.36</v>
+        <v>0.0872</v>
       </c>
       <c r="E2" t="n">
-        <v>9.06</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="C3" t="n">
-        <v>1.72</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>4.23</v>
+        <v>0.08460000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9.02</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.92</v>
+        <v>0.092</v>
       </c>
       <c r="C4" t="n">
-        <v>1.76</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>4.34</v>
+        <v>0.0868</v>
       </c>
       <c r="E4" t="n">
-        <v>9.06</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.93</v>
+        <v>0.093</v>
       </c>
       <c r="C5" t="n">
-        <v>1.78</v>
+        <v>0.089</v>
       </c>
       <c r="D5" t="n">
-        <v>4.35</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>9.41</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.87</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.84</v>
+        <v>0.092</v>
       </c>
       <c r="D6" t="n">
-        <v>4.32</v>
+        <v>0.0864</v>
       </c>
       <c r="E6" t="n">
-        <v>9.050000000000001</v>
+        <v>0.09050000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.07</v>
+        <v>0.107</v>
       </c>
       <c r="C7" t="n">
-        <v>1.87</v>
+        <v>0.0935</v>
       </c>
       <c r="D7" t="n">
-        <v>4.37</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>11.69</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.96</v>
+        <v>0.096</v>
       </c>
       <c r="C8" t="n">
-        <v>1.67</v>
+        <v>0.08349999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>4.26</v>
+        <v>0.0852</v>
       </c>
       <c r="E8" t="n">
-        <v>8.800000000000001</v>
+        <v>0.08800000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.95</v>
+        <v>0.095</v>
       </c>
       <c r="C9" t="n">
-        <v>1.7</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>4.3</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>8.77</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>0.093</v>
       </c>
       <c r="C10" t="n">
-        <v>1.73</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>4.33</v>
+        <v>0.0866</v>
       </c>
       <c r="E10" t="n">
-        <v>8.92</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="C11" t="n">
-        <v>1.76</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>4.33</v>
+        <v>0.0866</v>
       </c>
       <c r="E11" t="n">
-        <v>8.84</v>
+        <v>0.08839999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.85</v>
+        <v>0.385</v>
       </c>
       <c r="C12" t="n">
-        <v>1.69</v>
+        <v>0.08449999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>4.36</v>
+        <v>0.0872</v>
       </c>
       <c r="E12" t="n">
-        <v>8.81</v>
+        <v>0.08810000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.95</v>
+        <v>0.095</v>
       </c>
       <c r="C13" t="n">
-        <v>1.79</v>
+        <v>0.0895</v>
       </c>
       <c r="D13" t="n">
-        <v>4.32</v>
+        <v>0.0864</v>
       </c>
       <c r="E13" t="n">
-        <v>8.73</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="C14" t="n">
-        <v>1.73</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>4.38</v>
+        <v>0.0876</v>
       </c>
       <c r="E14" t="n">
-        <v>8.92</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C15" t="n">
-        <v>1.75</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>4.24</v>
+        <v>0.0848</v>
       </c>
       <c r="E15" t="n">
-        <v>9.07</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C16" t="n">
-        <v>1.75</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>4.12</v>
+        <v>0.0824</v>
       </c>
       <c r="E16" t="n">
-        <v>9.050000000000001</v>
+        <v>0.09050000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C17" t="n">
-        <v>1.72</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>4.27</v>
+        <v>0.08539999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>9.130000000000001</v>
+        <v>0.09130000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.96</v>
+        <v>0.096</v>
       </c>
       <c r="C18" t="n">
-        <v>1.71</v>
+        <v>0.08549999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>4.36</v>
+        <v>0.0872</v>
       </c>
       <c r="E18" t="n">
-        <v>8.9</v>
+        <v>0.08900000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="C19" t="n">
-        <v>1.73</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>4.37</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>9.02</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.96</v>
+        <v>0.096</v>
       </c>
       <c r="C20" t="n">
-        <v>1.72</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>4.3</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>8.970000000000001</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="C21" t="n">
-        <v>1.73</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>4.37</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>8.91</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.93</v>
+        <v>0.093</v>
       </c>
       <c r="C22" t="n">
-        <v>1.74</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>4.37</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>9.09</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="C23" t="n">
-        <v>1.71</v>
+        <v>0.08549999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>4.31</v>
+        <v>0.0862</v>
       </c>
       <c r="E23" t="n">
-        <v>9.15</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.98</v>
+        <v>0.098</v>
       </c>
       <c r="C24" t="n">
-        <v>1.76</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>4.33</v>
+        <v>0.0866</v>
       </c>
       <c r="E24" t="n">
-        <v>9.02</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.97</v>
+        <v>0.097</v>
       </c>
       <c r="C25" t="n">
-        <v>1.8</v>
+        <v>0.09</v>
       </c>
       <c r="D25" t="n">
-        <v>4.31695652173913</v>
+        <v>0.0863391304347826</v>
       </c>
       <c r="E25" t="n">
-        <v>8.890000000000001</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.99</v>
+        <v>0.099</v>
       </c>
       <c r="C26" t="n">
-        <v>1.83</v>
+        <v>0.0915</v>
       </c>
       <c r="D26" t="n">
-        <v>4.31695652173913</v>
+        <v>0.0863391304347826</v>
       </c>
       <c r="E26" t="n">
-        <v>9.029999999999999</v>
+        <v>0.09029999999999999</v>
       </c>
     </row>
   </sheetData>
